--- a/Figures_Tables/result_tables/table1_appendix.xlsx
+++ b/Figures_Tables/result_tables/table1_appendix.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="20860" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="20860" windowHeight="14560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="130000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,964 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="389">
+  <si>
+    <t>49 (34~71)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 (11.4~14.4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.6 (7.6~14.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5 (6~11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 (98~100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>86 (77~97)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3~5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>76 (65~89)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>124 (104~164</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15 (11~21)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103 (100~106)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 (22~28)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3.7~4.4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>140 (138~143)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>247 (199~307)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105 (101~108)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24 (21~27)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 (3.6~4.4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>139 (137~142)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>228 (165~291)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.3 (10.8~13.9)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.8 (8,7~16.4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>230 (184~291)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>34 (16~42)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29 (21~51)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 (2.7~3.9)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9 (1.7~2.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25%          8.1            6.3       Sum of Wgt.         410</t>
+  </si>
+  <si>
+    <t>50%          8.6                      Mean           8.578293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        Largest       Std. Dev.      .8263639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75%          9.1  </t>
+  </si>
+  <si>
+    <t>8.6 (8.1~9.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9 (0.7~1.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16 (12~22)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 (1.5~3.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (3~8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.04 (0.02~0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.7 (3.2~4.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>78 (61~101)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5 (0.3~0.7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>88 (76~101)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7 (5~8)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>78 (67~90)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>58 (41~74)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">90%           65 </t>
+  </si>
+  <si>
+    <t>42 (37~49)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>174 (87~341)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.4 (7.3~7.4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7 (1.5~2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.4 (7.8~8.9)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>137 (112~171)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 (6~13)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100 (99~100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>86 (73~100)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>98 (97~99)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 (4~10)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05 (0.02~0.11)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 (2.8~3.7)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>78 (59~112)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7 (0.4~1.2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>270 (210~384)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30 (17~64)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 (24~92)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 (2.9~4.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>394 (60.7%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>256 (56.1%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 (35~45)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>205 (122~326)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.38 (7.3~7.4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9 (1.4~3.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45 (9.9%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>75 (11.6%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60 (13.1%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>103 (15.9%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>546 (84.1%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>328 (71.7%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>129 (28.2%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>43 (9.4%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>45 (6.9%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20 (4.4%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22 (3.4%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18 (4%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>88 (13.6%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>158 (24.4%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>118 (18,2%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37 (8.1%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56 (8.6%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27 (6%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 (6.2%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>89 (17.5%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>52 (8%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17 (3.7%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>157 (34.4%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>125 (19.3%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>46 (10.1%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>47 (7%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>33 (7%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>145 (22%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40 (9%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>540 (83%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>285 (63%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>84 (12.9%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>140 (30.6%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>161 (24.8%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>148 (32.3%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>190 (29.2%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515 (79%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>265 (58%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;0.0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAC</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>792 (44.6%)</t>
+  </si>
+  <si>
+    <t>984 (55.4%)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>348 (50%)</t>
+  </si>
+  <si>
+    <t>Age (yr.)</t>
+  </si>
+  <si>
+    <t>51 (35~72)</t>
+  </si>
+  <si>
+    <t>56 (40~73)</t>
+  </si>
+  <si>
+    <t>53  (35~72)</t>
+  </si>
+  <si>
+    <t>54 (38~73)</t>
+  </si>
+  <si>
+    <t>Weight (Kg)</t>
+  </si>
+  <si>
+    <t>76 (65~90)</t>
+  </si>
+  <si>
+    <t>78 (67~90)</t>
+  </si>
+  <si>
+    <t>75 (65~90)</t>
+  </si>
+  <si>
+    <t>78 (65~90)</t>
+  </si>
+  <si>
+    <t>Gender (Female)</t>
+  </si>
+  <si>
+    <t>344 (43.5%)</t>
+  </si>
+  <si>
+    <t>406 (41.3%)</t>
+  </si>
+  <si>
+    <t>205 (58.9%)</t>
+  </si>
+  <si>
+    <t>192 (55.2%)</t>
+  </si>
+  <si>
+    <t>Ethnic group (White)</t>
+  </si>
+  <si>
+    <t>558 (70.5%)</t>
+  </si>
+  <si>
+    <t>690 (70.1%)</t>
+  </si>
+  <si>
+    <t>225 (64.7%)</t>
+  </si>
+  <si>
+    <t>234 (67.3%)</t>
+  </si>
+  <si>
+    <t>Admission Hour  (7am-7pm)</t>
+  </si>
+  <si>
+    <t>240 (30.3%)</t>
+  </si>
+  <si>
+    <t>287 (29.2%)</t>
+  </si>
+  <si>
+    <t>92 (26.4%)</t>
+  </si>
+  <si>
+    <t>97 (27.9%)</t>
+  </si>
+  <si>
+    <t>Admission Day of the Week (Weekends)</t>
+  </si>
+  <si>
+    <t>252 (31.8%)</t>
+  </si>
+  <si>
+    <t>256 (26%)</t>
+  </si>
+  <si>
+    <t>112 (32.2%)</t>
+  </si>
+  <si>
+    <t>95 (27.3%)</t>
+  </si>
+  <si>
+    <t>SOFA Score</t>
+  </si>
+  <si>
+    <t>5 (4~6)</t>
+  </si>
+  <si>
+    <t>Dilaudid, Lorazepam</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dexmedetomidine, Norepinephrine, Dopamine, Vasopressin, Phenylephrine, Epinephrine</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Non-IAC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IAC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matched</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unmatched</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matched</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unmatched</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>333 (72.8%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>459 (70.7%)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>504 (63.6%)</t>
+  </si>
+  <si>
+    <t>290 (29.5%)</t>
+  </si>
+  <si>
+    <t>184 (52.9%)</t>
+  </si>
+  <si>
+    <t>SICU</t>
+  </si>
+  <si>
+    <t>288 (26.4%)</t>
+  </si>
+  <si>
+    <t>694 (70.5)</t>
+  </si>
+  <si>
+    <t>164 (47.1%)</t>
+  </si>
+  <si>
+    <t>156 (44.8%)</t>
+  </si>
+  <si>
+    <t>Co-morbidities</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>97 (12.5%)</t>
+  </si>
+  <si>
+    <t>116 (11.8%)</t>
+  </si>
+  <si>
+    <t>44 (12.6%)</t>
+  </si>
+  <si>
+    <t>36 (10.3%)</t>
+  </si>
+  <si>
+    <t>A-fib</t>
+  </si>
+  <si>
+    <t>82 (10.4%)</t>
+  </si>
+  <si>
+    <t>125 (12.7%)</t>
+  </si>
+  <si>
+    <t>32 (9.2%)</t>
+  </si>
+  <si>
+    <t>Renal Disease</t>
+  </si>
+  <si>
+    <t>28 (3.5%)</t>
+  </si>
+  <si>
+    <t>32 (3.3%)</t>
+  </si>
+  <si>
+    <t>13 (3.8%)</t>
+  </si>
+  <si>
+    <t>10 (2.9%)</t>
+  </si>
+  <si>
+    <t>Liver Disease</t>
+  </si>
+  <si>
+    <t>28 (4.8%)</t>
+  </si>
+  <si>
+    <t>61 (6.2%)</t>
+  </si>
+  <si>
+    <t>14 (4%)</t>
+  </si>
+  <si>
+    <t>18 (5.2%)</t>
+  </si>
+  <si>
+    <t>COPD</t>
+  </si>
+  <si>
+    <t>81 (10.23%)</t>
+  </si>
+  <si>
+    <t>76 (7.72%)</t>
+  </si>
+  <si>
+    <t>39 (11.2%)</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>51 (6.4%)</t>
+  </si>
+  <si>
+    <t>72 (7.32%)</t>
+  </si>
+  <si>
+    <t>23 (6.6%)</t>
+  </si>
+  <si>
+    <t>21 (6%)</t>
+  </si>
+  <si>
+    <t>Stroke</t>
+  </si>
+  <si>
+    <t>70 (8.8%)</t>
+  </si>
+  <si>
+    <t>152 (15.5%)</t>
+  </si>
+  <si>
+    <t>33 (9.5%)</t>
+  </si>
+  <si>
+    <t>Malignance</t>
+  </si>
+  <si>
+    <t>92 (11.6%)</t>
+  </si>
+  <si>
+    <t>164 (16.7%)</t>
+  </si>
+  <si>
+    <t>51 (14.7%)</t>
+  </si>
+  <si>
+    <t>Respotary Disease</t>
+  </si>
+  <si>
+    <t>278 (35.1%)</t>
+  </si>
+  <si>
+    <t>121 (34.7%)</t>
+  </si>
+  <si>
+    <t>125 (35.9%)</t>
+  </si>
+  <si>
+    <t>ARDS</t>
+  </si>
+  <si>
+    <t>33 (4.2%)</t>
+  </si>
+  <si>
+    <t>70 (7.1%)</t>
+  </si>
+  <si>
+    <t>16 (4.8%)</t>
+  </si>
+  <si>
+    <t>18 (5.4%)</t>
+  </si>
+  <si>
+    <t>Pneumonia</t>
+  </si>
+  <si>
+    <t>147 (18.6%)</t>
+  </si>
+  <si>
+    <t>67 (20%)</t>
+  </si>
+  <si>
+    <t>68 (20.3%)</t>
+  </si>
+  <si>
+    <t>Vital Signs</t>
+  </si>
+  <si>
+    <t>MAP (mmHg)</t>
+  </si>
+  <si>
+    <t>86 (77~98)</t>
+  </si>
+  <si>
+    <t>88 (76~100)</t>
+  </si>
+  <si>
+    <t>87 (77~98)</t>
+  </si>
+  <si>
+    <t>87 (75~98)</t>
+  </si>
+  <si>
+    <t>Temperature (F)</t>
+  </si>
+  <si>
+    <t>98 (97~99)</t>
+  </si>
+  <si>
+    <t>Heart Rate</t>
+  </si>
+  <si>
+    <t>87 (75~100)</t>
+  </si>
+  <si>
+    <t>88 (74~99)</t>
+  </si>
+  <si>
+    <t>86 (74~100)</t>
+  </si>
+  <si>
+    <t>90 (77~99)</t>
+  </si>
+  <si>
+    <t>SPO2 (%)</t>
+  </si>
+  <si>
+    <t>100 (98~100)</t>
+  </si>
+  <si>
+    <t>100 (99~100)</t>
+  </si>
+  <si>
+    <t>CVP (mmHg)</t>
+  </si>
+  <si>
+    <t>8 (6~11)</t>
+  </si>
+  <si>
+    <t>10 (6~13)</t>
+  </si>
+  <si>
+    <t>7.5 (6~12)</t>
+  </si>
+  <si>
+    <t>lab tests</t>
+  </si>
+  <si>
+    <t>WBC</t>
+  </si>
+  <si>
+    <t>10.6 (7.8~14.3)</t>
+  </si>
+  <si>
+    <t>11.8 (8.5~15.9)</t>
+  </si>
+  <si>
+    <t>10.7 (8~14.8)</t>
+  </si>
+  <si>
+    <t>11.5 (8.4~14.7)</t>
+  </si>
+  <si>
+    <t>Hemoglobin (g/dL)</t>
+  </si>
+  <si>
+    <t>13 (11.3~14.4)</t>
+  </si>
+  <si>
+    <t>12.6 (11~14.1)</t>
+  </si>
+  <si>
+    <t>12.8 (11.2 ~14.2)</t>
+  </si>
+  <si>
+    <t>12.7 (11~14.1)</t>
+  </si>
+  <si>
+    <t>Platelet (K/uL)</t>
+  </si>
+  <si>
+    <t>246 (190~304)</t>
+  </si>
+  <si>
+    <t>237 (177~294)</t>
+  </si>
+  <si>
+    <t>238 (184~303)</t>
+  </si>
+  <si>
+    <t>238 (186~289)</t>
+  </si>
+  <si>
+    <t>Sodium (mEq/L)</t>
+  </si>
+  <si>
+    <t>140 (138~143)</t>
+  </si>
+  <si>
+    <t>140 (137~142)</t>
+  </si>
+  <si>
+    <t>Potassium (mEq/L)</t>
+  </si>
+  <si>
+    <t>4 (3.6~4.5)</t>
+  </si>
+  <si>
+    <t>4 (3.7~4.4)</t>
+  </si>
+  <si>
+    <t>Bicarbonate (mEq/L)</t>
+  </si>
+  <si>
+    <t>24 (22~27)</t>
+  </si>
+  <si>
+    <t>24 (21~27)</t>
+  </si>
+  <si>
+    <t>Chloride (mEq/L)</t>
+  </si>
+  <si>
+    <t>104 (100~107)</t>
+  </si>
+  <si>
+    <t>104 (101~108)</t>
+  </si>
+  <si>
+    <t>BUN (mg/dL)</t>
+  </si>
+  <si>
+    <t>15 (11~21)</t>
+  </si>
+  <si>
+    <t>16 (12~22)</t>
+  </si>
+  <si>
+    <t>15 (11~22)</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>Entire Cohort (1776)</t>
+  </si>
+  <si>
+    <t>Matched Cohort (696)</t>
+  </si>
+  <si>
+    <t>Non-IAC</t>
+  </si>
   <si>
     <t>Creatinine (mg/dL)</t>
   </si>
@@ -349,491 +1307,29 @@
   </si>
   <si>
     <t>MICU</t>
-  </si>
-  <si>
-    <t>504 (63.6%)</t>
-  </si>
-  <si>
-    <t>290 (29.5%)</t>
-  </si>
-  <si>
-    <t>184 (52.9%)</t>
-  </si>
-  <si>
-    <t>SICU</t>
-  </si>
-  <si>
-    <t>288 (26.4%)</t>
-  </si>
-  <si>
-    <t>694 (70.5)</t>
-  </si>
-  <si>
-    <t>164 (47.1%)</t>
-  </si>
-  <si>
-    <t>156 (44.8%)</t>
-  </si>
-  <si>
-    <t>Co-morbidities</t>
-  </si>
-  <si>
-    <t>CHF</t>
-  </si>
-  <si>
-    <t>97 (12.5%)</t>
-  </si>
-  <si>
-    <t>116 (11.8%)</t>
-  </si>
-  <si>
-    <t>44 (12.6%)</t>
-  </si>
-  <si>
-    <t>36 (10.3%)</t>
-  </si>
-  <si>
-    <t>A-fib</t>
-  </si>
-  <si>
-    <t>82 (10.4%)</t>
-  </si>
-  <si>
-    <t>125 (12.7%)</t>
-  </si>
-  <si>
-    <t>32 (9.2%)</t>
-  </si>
-  <si>
-    <t>Renal Disease</t>
-  </si>
-  <si>
-    <t>28 (3.5%)</t>
-  </si>
-  <si>
-    <t>32 (3.3%)</t>
-  </si>
-  <si>
-    <t>13 (3.8%)</t>
-  </si>
-  <si>
-    <t>10 (2.9%)</t>
-  </si>
-  <si>
-    <t>Liver Disease</t>
-  </si>
-  <si>
-    <t>28 (4.8%)</t>
-  </si>
-  <si>
-    <t>61 (6.2%)</t>
-  </si>
-  <si>
-    <t>14 (4%)</t>
-  </si>
-  <si>
-    <t>18 (5.2%)</t>
-  </si>
-  <si>
-    <t>COPD</t>
-  </si>
-  <si>
-    <t>81 (10.23%)</t>
-  </si>
-  <si>
-    <t>76 (7.72%)</t>
-  </si>
-  <si>
-    <t>39 (11.2%)</t>
-  </si>
-  <si>
-    <t>CAD</t>
-  </si>
-  <si>
-    <t>51 (6.4%)</t>
-  </si>
-  <si>
-    <t>72 (7.32%)</t>
-  </si>
-  <si>
-    <t>23 (6.6%)</t>
-  </si>
-  <si>
-    <t>21 (6%)</t>
-  </si>
-  <si>
-    <t>Stroke</t>
-  </si>
-  <si>
-    <t>70 (8.8%)</t>
-  </si>
-  <si>
-    <t>152 (15.5%)</t>
-  </si>
-  <si>
-    <t>33 (9.5%)</t>
-  </si>
-  <si>
-    <t>Malignance</t>
-  </si>
-  <si>
-    <t>92 (11.6%)</t>
-  </si>
-  <si>
-    <t>164 (16.7%)</t>
-  </si>
-  <si>
-    <t>51 (14.7%)</t>
-  </si>
-  <si>
-    <t>Respotary Disease</t>
-  </si>
-  <si>
-    <t>278 (35.1%)</t>
-  </si>
-  <si>
-    <t>121 (34.7%)</t>
-  </si>
-  <si>
-    <t>125 (35.9%)</t>
-  </si>
-  <si>
-    <t>ARDS</t>
-  </si>
-  <si>
-    <t>33 (4.2%)</t>
-  </si>
-  <si>
-    <t>70 (7.1%)</t>
-  </si>
-  <si>
-    <t>16 (4.8%)</t>
-  </si>
-  <si>
-    <t>18 (5.4%)</t>
-  </si>
-  <si>
-    <t>Pneumonia</t>
-  </si>
-  <si>
-    <t>147 (18.6%)</t>
-  </si>
-  <si>
-    <t>67 (20%)</t>
-  </si>
-  <si>
-    <t>68 (20.3%)</t>
-  </si>
-  <si>
-    <t>Vital Signs</t>
-  </si>
-  <si>
-    <t>MAP (mmHg)</t>
-  </si>
-  <si>
-    <t>86 (77~98)</t>
-  </si>
-  <si>
-    <t>88 (76~100)</t>
-  </si>
-  <si>
-    <t>87 (77~98)</t>
-  </si>
-  <si>
-    <t>87 (75~98)</t>
-  </si>
-  <si>
-    <t>Temperature (F)</t>
-  </si>
-  <si>
-    <t>98 (97~99)</t>
-  </si>
-  <si>
-    <t>Heart Rate</t>
-  </si>
-  <si>
-    <t>87 (75~100)</t>
-  </si>
-  <si>
-    <t>88 (74~99)</t>
-  </si>
-  <si>
-    <t>86 (74~100)</t>
-  </si>
-  <si>
-    <t>90 (77~99)</t>
-  </si>
-  <si>
-    <t>SPO2 (%)</t>
-  </si>
-  <si>
-    <t>100 (98~100)</t>
-  </si>
-  <si>
-    <t>100 (99~100)</t>
-  </si>
-  <si>
-    <t>CVP (mmHg)</t>
-  </si>
-  <si>
-    <t>8 (6~11)</t>
-  </si>
-  <si>
-    <t>10 (6~13)</t>
-  </si>
-  <si>
-    <t>7.5 (6~12)</t>
-  </si>
-  <si>
-    <t>lab tests</t>
-  </si>
-  <si>
-    <t>WBC</t>
-  </si>
-  <si>
-    <t>10.6 (7.8~14.3)</t>
-  </si>
-  <si>
-    <t>11.8 (8.5~15.9)</t>
-  </si>
-  <si>
-    <t>10.7 (8~14.8)</t>
-  </si>
-  <si>
-    <t>11.5 (8.4~14.7)</t>
-  </si>
-  <si>
-    <t>Hemoglobin (g/dL)</t>
-  </si>
-  <si>
-    <t>13 (11.3~14.4)</t>
-  </si>
-  <si>
-    <t>12.6 (11~14.1)</t>
-  </si>
-  <si>
-    <t>12.8 (11.2 ~14.2)</t>
-  </si>
-  <si>
-    <t>12.7 (11~14.1)</t>
-  </si>
-  <si>
-    <t>Platelet (K/uL)</t>
-  </si>
-  <si>
-    <t>246 (190~304)</t>
-  </si>
-  <si>
-    <t>237 (177~294)</t>
-  </si>
-  <si>
-    <t>238 (184~303)</t>
-  </si>
-  <si>
-    <t>238 (186~289)</t>
-  </si>
-  <si>
-    <t>Sodium (mEq/L)</t>
-  </si>
-  <si>
-    <t>140 (138~143)</t>
-  </si>
-  <si>
-    <t>140 (137~142)</t>
-  </si>
-  <si>
-    <t>Potassium (mEq/L)</t>
-  </si>
-  <si>
-    <t>4 (3.6~4.5)</t>
-  </si>
-  <si>
-    <t>4 (3.7~4.4)</t>
-  </si>
-  <si>
-    <t>Bicarbonate (mEq/L)</t>
-  </si>
-  <si>
-    <t>24 (22~27)</t>
-  </si>
-  <si>
-    <t>24 (21~27)</t>
-  </si>
-  <si>
-    <t>Chloride (mEq/L)</t>
-  </si>
-  <si>
-    <t>104 (100~107)</t>
-  </si>
-  <si>
-    <t>104 (101~108)</t>
-  </si>
-  <si>
-    <t>BUN (mg/dL)</t>
-  </si>
-  <si>
-    <t>15 (11~21)</t>
-  </si>
-  <si>
-    <t>16 (12~22)</t>
-  </si>
-  <si>
-    <t>15 (11~22)</t>
-  </si>
-  <si>
-    <t>PH</t>
-  </si>
-  <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>Entire Cohort (1776)</t>
-  </si>
-  <si>
-    <t>Matched Cohort (696)</t>
-  </si>
-  <si>
-    <t>Non-IAC</t>
-  </si>
-  <si>
-    <t>IAC</t>
-  </si>
-  <si>
-    <t>p-value</t>
-  </si>
-  <si>
-    <t>size</t>
-  </si>
-  <si>
-    <t>792 (44.6%)</t>
-  </si>
-  <si>
-    <t>984 (55.4%)</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>348 (50%)</t>
-  </si>
-  <si>
-    <t>Age (yr.)</t>
-  </si>
-  <si>
-    <t>51 (35~72)</t>
-  </si>
-  <si>
-    <t>56 (40~73)</t>
-  </si>
-  <si>
-    <t>53  (35~72)</t>
-  </si>
-  <si>
-    <t>54 (38~73)</t>
-  </si>
-  <si>
-    <t>Weight (Kg)</t>
-  </si>
-  <si>
-    <t>76 (65~90)</t>
-  </si>
-  <si>
-    <t>78 (67~90)</t>
-  </si>
-  <si>
-    <t>75 (65~90)</t>
-  </si>
-  <si>
-    <t>78 (65~90)</t>
-  </si>
-  <si>
-    <t>Gender (Female)</t>
-  </si>
-  <si>
-    <t>344 (43.5%)</t>
-  </si>
-  <si>
-    <t>406 (41.3%)</t>
-  </si>
-  <si>
-    <t>205 (58.9%)</t>
-  </si>
-  <si>
-    <t>192 (55.2%)</t>
-  </si>
-  <si>
-    <t>Ethnic group (White)</t>
-  </si>
-  <si>
-    <t>558 (70.5%)</t>
-  </si>
-  <si>
-    <t>690 (70.1%)</t>
-  </si>
-  <si>
-    <t>225 (64.7%)</t>
-  </si>
-  <si>
-    <t>234 (67.3%)</t>
-  </si>
-  <si>
-    <t>Admission Hour  (7am-7pm)</t>
-  </si>
-  <si>
-    <t>240 (30.3%)</t>
-  </si>
-  <si>
-    <t>287 (29.2%)</t>
-  </si>
-  <si>
-    <t>92 (26.4%)</t>
-  </si>
-  <si>
-    <t>97 (27.9%)</t>
-  </si>
-  <si>
-    <t>Admission Day of the Week (Weekends)</t>
-  </si>
-  <si>
-    <t>252 (31.8%)</t>
-  </si>
-  <si>
-    <t>256 (26%)</t>
-  </si>
-  <si>
-    <t>112 (32.2%)</t>
-  </si>
-  <si>
-    <t>95 (27.3%)</t>
-  </si>
-  <si>
-    <t>SOFA Score</t>
-  </si>
-  <si>
-    <t>5 (4~6)</t>
-  </si>
-  <si>
-    <t>Dilaudid, Lorazepam</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dexmedetomidine, Norepinephrine, Dopamine, Vasopressin, Phenylephrine, Epinephrine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
@@ -960,80 +1456,96 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1368,8 +1880,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1382,16 +1894,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>221</v>
+      <c r="A1" s="16" t="s">
+        <v>275</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="20"/>
       <c r="E1" s="18" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="F1" s="19"/>
       <c r="G1" s="20"/>
@@ -1399,65 +1911,65 @@
     <row r="2" spans="1:7">
       <c r="A2" s="17"/>
       <c r="B2" s="1" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>226</v>
+        <v>116</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>225</v>
+        <v>115</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>226</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>228</v>
+        <v>118</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>231</v>
+        <v>121</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>232</v>
+        <v>122</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>233</v>
+        <v>123</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>234</v>
+        <v>124</v>
       </c>
       <c r="D4" s="8">
         <v>8.9999999999999993E-3</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>235</v>
+        <v>125</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c r="G4" s="11">
         <v>0.8</v>
@@ -1465,45 +1977,45 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="D5" s="16">
+        <v>127</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="15">
         <v>0.08</v>
       </c>
-      <c r="E5" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="G5" s="16">
+      <c r="E5" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="G5" s="15">
         <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>242</v>
+        <v>132</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>243</v>
+        <v>133</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>244</v>
+        <v>134</v>
       </c>
       <c r="D6" s="9">
         <v>0.36</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>245</v>
+        <v>135</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c r="G6" s="11">
         <v>0.59</v>
@@ -1511,68 +2023,68 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
-        <v>247</v>
+        <v>137</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>249</v>
+        <v>139</v>
       </c>
       <c r="D7" s="8">
         <v>0.9</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>250</v>
+        <v>140</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>251</v>
+        <v>141</v>
       </c>
       <c r="G7" s="11">
         <v>0.45</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="24">
       <c r="A8" s="3" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c r="D8" s="8">
         <v>0.6</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>255</v>
+        <v>145</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>256</v>
+        <v>146</v>
       </c>
       <c r="G8" s="11">
         <v>0.67</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="24">
       <c r="A9" s="3" t="s">
-        <v>257</v>
+        <v>147</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>258</v>
+        <v>148</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>259</v>
+        <v>149</v>
       </c>
       <c r="D9" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>260</v>
+        <v>150</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>261</v>
+        <v>151</v>
       </c>
       <c r="G9" s="10">
         <v>0.15</v>
@@ -1580,22 +2092,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>262</v>
+        <v>152</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>263</v>
+        <v>153</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>104</v>
+        <v>383</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>106</v>
+        <v>385</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>107</v>
+        <v>386</v>
       </c>
       <c r="G10" s="11">
         <v>0.5</v>
@@ -1603,12 +2115,12 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>108</v>
+        <v>387</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="21" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -1618,45 +2130,45 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
-        <v>109</v>
+        <v>388</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>111</v>
+        <v>165</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="9" t="s">
-        <v>112</v>
+        <v>166</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
-        <v>113</v>
+        <v>167</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>114</v>
+        <v>168</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="9" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>117</v>
+        <v>171</v>
       </c>
       <c r="G13" s="26"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1667,22 +2179,22 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>119</v>
+        <v>173</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>121</v>
+        <v>175</v>
       </c>
       <c r="D15" s="9">
         <v>0.7</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="G15" s="11">
         <v>0.63</v>
@@ -1690,22 +2202,22 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>125</v>
+        <v>179</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>126</v>
+        <v>180</v>
       </c>
       <c r="D16" s="9">
         <v>0.1</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>123</v>
+        <v>177</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="G16" s="11">
         <v>1</v>
@@ -1713,22 +2225,22 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="D17" s="9">
         <v>0.8</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>131</v>
+        <v>185</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="G17" s="11">
         <v>1</v>
@@ -1736,22 +2248,22 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>133</v>
+        <v>187</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="D18" s="9">
         <v>0.2</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>137</v>
+        <v>191</v>
       </c>
       <c r="G18" s="11">
         <v>0.72</v>
@@ -1759,22 +2271,22 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="D19" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="G19" s="11">
         <v>0.8</v>
@@ -1782,22 +2294,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>142</v>
+        <v>196</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>143</v>
+        <v>197</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>144</v>
+        <v>198</v>
       </c>
       <c r="D20" s="9">
         <v>0.5</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>146</v>
+        <v>200</v>
       </c>
       <c r="G20" s="11">
         <v>0.2</v>
@@ -1805,22 +2317,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>148</v>
+        <v>202</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="D21" s="8">
         <v>1E-4</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>150</v>
+        <v>204</v>
       </c>
       <c r="G21" s="11">
         <v>0.9</v>
@@ -1828,22 +2340,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>152</v>
+        <v>206</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c r="D22" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>154</v>
+        <v>208</v>
       </c>
       <c r="G22" s="11">
         <v>0.43</v>
@@ -1851,22 +2363,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>155</v>
+        <v>209</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>156</v>
+        <v>210</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c r="D23" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>157</v>
+        <v>211</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>158</v>
+        <v>212</v>
       </c>
       <c r="G23" s="11">
         <v>0.52</v>
@@ -1874,22 +2386,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>160</v>
+        <v>214</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>161</v>
+        <v>215</v>
       </c>
       <c r="D24" s="8">
         <v>0.01</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="G24" s="11">
         <v>0.72</v>
@@ -1897,22 +2409,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="D25" s="8">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>166</v>
+        <v>220</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>167</v>
+        <v>221</v>
       </c>
       <c r="G25" s="11">
         <v>0.92</v>
@@ -1920,7 +2432,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="2" t="s">
-        <v>168</v>
+        <v>222</v>
       </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1931,22 +2443,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>171</v>
+        <v>225</v>
       </c>
       <c r="D27" s="4">
         <v>0.2</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>172</v>
+        <v>226</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="G27" s="4">
         <v>0.8</v>
@@ -1954,22 +2466,22 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>174</v>
+        <v>228</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="D28" s="4">
         <v>0.6</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>175</v>
+        <v>229</v>
       </c>
       <c r="G28" s="10">
         <v>0.56000000000000005</v>
@@ -1977,22 +2489,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="D29" s="4">
         <v>0.5</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>179</v>
+        <v>233</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="G29" s="10">
         <v>0.32</v>
@@ -2000,22 +2512,22 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="D30" s="4">
         <v>0.5</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>183</v>
+        <v>237</v>
       </c>
       <c r="G30" s="10">
         <v>0.55000000000000004</v>
@@ -2023,22 +2535,22 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
-        <v>184</v>
+        <v>238</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="D31" s="4">
         <v>0.4</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>187</v>
+        <v>241</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="G31" s="4">
         <v>0.1</v>
@@ -2046,7 +2558,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
-        <v>188</v>
+        <v>242</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2055,93 +2567,93 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="24">
       <c r="A33" s="3" t="s">
-        <v>189</v>
+        <v>243</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="G33" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="24">
       <c r="A34" s="3" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>196</v>
+        <v>250</v>
       </c>
       <c r="D34" s="8">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
       <c r="G34" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="24">
       <c r="A35" s="3" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="D35" s="9">
         <v>0.01</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>203</v>
+        <v>257</v>
       </c>
       <c r="G35" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="24">
       <c r="A36" s="3" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="D36" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>205</v>
+        <v>259</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>206</v>
+        <v>260</v>
       </c>
       <c r="G36" s="9">
         <v>0.6</v>
@@ -2149,22 +2661,22 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="D37" s="9">
         <v>0.77</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>208</v>
+        <v>262</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>209</v>
+        <v>263</v>
       </c>
       <c r="G37" s="9">
         <v>0.9</v>
@@ -2172,45 +2684,45 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>210</v>
+        <v>264</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="D38" s="9">
         <v>0.05</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>211</v>
+        <v>265</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>212</v>
+        <v>266</v>
       </c>
       <c r="G38" s="9">
         <v>0.3</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="24">
       <c r="A39" s="3" t="s">
-        <v>213</v>
+        <v>267</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>215</v>
+        <v>269</v>
       </c>
       <c r="D39" s="8">
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
       <c r="G39" s="9">
         <v>0.3</v>
@@ -2218,22 +2730,22 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>216</v>
+        <v>270</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>217</v>
+        <v>271</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="D40" s="8">
         <v>0.02</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="G40" s="9">
         <v>0.7</v>
@@ -2241,22 +2753,22 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="D41" s="9">
         <v>0.6</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>2</v>
+        <v>281</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>1</v>
+        <v>280</v>
       </c>
       <c r="G41" s="9">
         <v>0.6</v>
@@ -2264,22 +2776,22 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="6" t="s">
-        <v>3</v>
+        <v>282</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>4</v>
+        <v>283</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>5</v>
+        <v>284</v>
       </c>
       <c r="D42" s="7">
         <v>1E-4</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>6</v>
+        <v>285</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>7</v>
+        <v>286</v>
       </c>
       <c r="G42" s="4">
         <v>0.3</v>
@@ -2287,22 +2799,22 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="6" t="s">
-        <v>8</v>
+        <v>287</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>9</v>
+        <v>288</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="D43" s="7">
         <v>1E-4</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>10</v>
+        <v>289</v>
       </c>
       <c r="G43" s="4">
         <v>0.3</v>
@@ -2310,22 +2822,22 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="6" t="s">
-        <v>12</v>
+        <v>291</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>13</v>
+        <v>292</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>14</v>
+        <v>293</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>15</v>
+        <v>294</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="G44" s="4">
         <v>0.8</v>
@@ -2333,22 +2845,22 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6" t="s">
-        <v>17</v>
+        <v>296</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>18</v>
+        <v>297</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>19</v>
+        <v>298</v>
       </c>
       <c r="D45" s="4">
         <v>0.02</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>18</v>
+        <v>297</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>20</v>
+        <v>299</v>
       </c>
       <c r="G45" s="4">
         <v>0.5</v>
@@ -2356,22 +2868,22 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="6" t="s">
-        <v>21</v>
+        <v>300</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>23</v>
+        <v>302</v>
       </c>
       <c r="D46" s="7">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>24</v>
+        <v>303</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>25</v>
+        <v>304</v>
       </c>
       <c r="G46" s="4">
         <v>0.05</v>
@@ -2379,22 +2891,22 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="6" t="s">
-        <v>26</v>
+        <v>305</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>27</v>
+        <v>306</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>28</v>
+        <v>307</v>
       </c>
       <c r="D47" s="7">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>29</v>
+        <v>308</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>30</v>
+        <v>309</v>
       </c>
       <c r="G47" s="4">
         <v>0.1</v>
@@ -2402,22 +2914,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="6" t="s">
-        <v>31</v>
+        <v>310</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>32</v>
+        <v>311</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>33</v>
+        <v>312</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>34</v>
+        <v>313</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>35</v>
+        <v>314</v>
       </c>
       <c r="G48" s="4">
         <v>0.9</v>
@@ -2425,22 +2937,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="6" t="s">
-        <v>36</v>
+        <v>315</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>37</v>
+        <v>316</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>38</v>
+        <v>317</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>39</v>
+        <v>318</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="G49" s="4">
         <v>0.13</v>
@@ -2448,22 +2960,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="6" t="s">
-        <v>41</v>
+        <v>320</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>42</v>
+        <v>321</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>43</v>
+        <v>322</v>
       </c>
       <c r="D50" s="4">
         <v>0.8</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>44</v>
+        <v>323</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="G50" s="4">
         <v>0.2</v>
@@ -2471,22 +2983,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="6" t="s">
-        <v>46</v>
+        <v>325</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>47</v>
+        <v>326</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>48</v>
+        <v>327</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>49</v>
+        <v>328</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>50</v>
+        <v>329</v>
       </c>
       <c r="G51" s="4">
         <v>0.1</v>
@@ -2494,22 +3006,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="6" t="s">
-        <v>51</v>
+        <v>330</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>52</v>
+        <v>331</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>53</v>
+        <v>332</v>
       </c>
       <c r="D52" s="4">
         <v>0.97</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>54</v>
+        <v>333</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>55</v>
+        <v>334</v>
       </c>
       <c r="G52" s="4">
         <v>0.3</v>
@@ -2517,22 +3029,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="6" t="s">
-        <v>56</v>
+        <v>335</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>57</v>
+        <v>336</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>58</v>
+        <v>337</v>
       </c>
       <c r="D53" s="7">
         <v>6.9999999999999999E-4</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>59</v>
+        <v>338</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>60</v>
+        <v>339</v>
       </c>
       <c r="G53" s="4">
         <v>0.7</v>
@@ -2540,45 +3052,45 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="6" t="s">
-        <v>61</v>
+        <v>340</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>62</v>
+        <v>341</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>63</v>
+        <v>342</v>
       </c>
       <c r="D54" s="4">
         <v>0.9</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="6" t="s">
-        <v>64</v>
+        <v>343</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>65</v>
+        <v>344</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>66</v>
+        <v>345</v>
       </c>
       <c r="D55" s="4">
         <v>0.7</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>67</v>
+        <v>346</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>68</v>
+        <v>347</v>
       </c>
       <c r="G55" s="4">
         <v>0.2</v>
@@ -2586,22 +3098,22 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="6" t="s">
-        <v>220</v>
+        <v>274</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>69</v>
+        <v>348</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>69</v>
+        <v>348</v>
       </c>
       <c r="D56" s="4">
         <v>0.6</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>70</v>
+        <v>349</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>71</v>
+        <v>350</v>
       </c>
       <c r="G56" s="4">
         <v>7.0000000000000007E-2</v>
@@ -2609,45 +3121,45 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="6" t="s">
-        <v>72</v>
+        <v>351</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>73</v>
+        <v>352</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>74</v>
+        <v>353</v>
       </c>
       <c r="D57" s="4">
         <v>0.6</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="24">
       <c r="A58" s="3" t="s">
-        <v>75</v>
+        <v>354</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>76</v>
+        <v>355</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>77</v>
+        <v>356</v>
       </c>
       <c r="D58" s="9">
         <v>0.5</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>78</v>
+        <v>357</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="G58" s="9">
         <v>0.8</v>
@@ -2655,45 +3167,45 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="3" t="s">
-        <v>80</v>
+        <v>359</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>81</v>
+        <v>360</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>82</v>
+        <v>361</v>
       </c>
       <c r="D59" s="8">
         <v>0.02</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>83</v>
+        <v>362</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>84</v>
+        <v>363</v>
       </c>
       <c r="G59" s="9">
         <v>0.6</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" ht="24">
       <c r="A60" s="2" t="s">
-        <v>85</v>
+        <v>364</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>86</v>
+        <v>365</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>87</v>
+        <v>366</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>88</v>
+        <v>367</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>89</v>
+        <v>368</v>
       </c>
       <c r="G60" s="4">
         <v>0.3</v>
@@ -2701,22 +3213,22 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
-        <v>90</v>
+        <v>369</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>91</v>
+        <v>370</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>92</v>
+        <v>371</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>93</v>
+        <v>372</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>94</v>
+        <v>373</v>
       </c>
       <c r="G61" s="7">
         <v>2E-3</v>
@@ -2724,22 +3236,22 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>95</v>
+        <v>374</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>96</v>
+        <v>375</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>97</v>
+        <v>376</v>
       </c>
       <c r="D62" s="4">
         <v>0.05</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>98</v>
+        <v>377</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>99</v>
+        <v>378</v>
       </c>
       <c r="G62" s="7">
         <v>1E-3</v>
@@ -2747,22 +3259,22 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
-        <v>100</v>
+        <v>379</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>101</v>
+        <v>380</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>102</v>
+        <v>381</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>105</v>
+        <v>384</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>103</v>
+        <v>382</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>103</v>
+        <v>382</v>
       </c>
       <c r="G63" s="4">
         <v>1</v>
@@ -2833,7 +3345,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="12" t="s">
-        <v>264</v>
+        <v>154</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -2844,7 +3356,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="13" t="s">
-        <v>265</v>
+        <v>155</v>
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -2854,6 +3366,7 @@
       <c r="G72" s="14"/>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
@@ -2861,7 +3374,7 @@
     <mergeCell ref="D11:D13"/>
     <mergeCell ref="G11:G13"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2870,4 +3383,1421 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:H62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="17"/>
+      <c r="B2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.9</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24">
+      <c r="A7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24">
+      <c r="A8" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="32">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="32">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G20" s="30">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="31">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="11">
+        <v>0.7</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.99</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="1:7" ht="24">
+      <c r="A32" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="24">
+      <c r="A33" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="24">
+      <c r="A34" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="24">
+      <c r="A35" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" s="8">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D36" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="9">
+        <v>0.02</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="24">
+      <c r="A38" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G43" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="7">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="7">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G51" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G54" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G55" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="24">
+      <c r="A57" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D57" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G57" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="H57" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" s="9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="24">
+      <c r="A59" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G59" s="4">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.08</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G60" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="H60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G61" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="H61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="G62" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="H62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="G10:G12"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>